--- a/Output/Bull_Trout_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee.xlsx
+++ b/Output/Bull_Trout_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD1"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,123 +390,171 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ReviewComments</t>
+          <t>BankStability_score</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Reach.Assessment.Data</t>
+          <t>ChannelStability_score</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Level.2.Survey.Data</t>
+          <t>Stability_Mean</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>Level.2.Data.Prior.to.2000</t>
+          <t>CoarseSubstrate_score</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Level.2.Survey.Data.Date</t>
+          <t>Cover-Wood_score</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>Data.Gap</t>
+          <t>Flow-SummerBaseFlow_score</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Length..miles.</t>
+          <t>Off-Channel-Floodplain_score</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Length..meters.</t>
+          <t>Off-Channel-Side-Channels_score</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t>Assessment.Unit.Restoration.Priority.Category.Spring.Chinook</t>
+          <t>PoolQuantity&amp;Quality_score</t>
         </is>
       </c>
       <c r="P1" s="1" t="inlineStr">
         <is>
-          <t>Assessment.Unit.Restoration.Priority.Category.Steelhead</t>
+          <t>Riparian-Disturbance_score</t>
         </is>
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Shape__Length</t>
+          <t>Riparian-CanopyCover_score</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>Reach_Name_UCSRB</t>
+          <t>Riparian_Mean</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Data_Source</t>
+          <t>Temperature-Rearing_score</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Reach_ID_in_assessment</t>
+          <t>HQ_Sum</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>River</t>
+          <t>HQ_Pct</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Single_or_Multiple_Reaches</t>
+          <t>HQ_Score_Restoration</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Reach_start_river_miles</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Reach_end_river_miles</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Length_AvgWettedWidth_Meters</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>Wetted_Width_less_than_5m</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>PFC_Pool_Freq_Code_1_2_3_bins_20ft_50ft</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>PFC_Channel_Width_BINS_5_10_15_20_25_50_75_100_feet</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>PFC_POOL_Freq_per_mile</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>Species_Reaches</t>
-        </is>
+          <t>HQ_Score_Protection</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>White River Lower 08</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Wenatchee</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Lower White River</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
+        <v>3</v>
+      </c>
+      <c r="R2">
+        <v>4</v>
+      </c>
+      <c r="S2">
+        <v>5</v>
+      </c>
+      <c r="T2">
+        <v>34</v>
+      </c>
+      <c r="U2">
+        <v>0.7555555555555555</v>
+      </c>
+      <c r="V2">
+        <v>5</v>
+      </c>
+      <c r="W2">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Output/Bull_Trout_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee.xlsx
+++ b/Output/Bull_Trout_Habitat_Quality_PROTECTION_Methow_Entiat_Wenatchee.xlsx
@@ -477,17 +477,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>White River Lower 08</t>
+          <t>Twisp River Upper 01</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Wenatchee</t>
+          <t>Methow</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Lower White River</t>
+          <t>Upper Twisp River</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -518,37 +518,37 @@
         <v>5</v>
       </c>
       <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+      <c r="N2">
         <v>3</v>
       </c>
-      <c r="L2">
-        <v>5</v>
-      </c>
-      <c r="M2">
-        <v>5</v>
-      </c>
-      <c r="N2">
+      <c r="O2">
+        <v>5</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+      <c r="Q2">
         <v>1</v>
       </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>5</v>
-      </c>
-      <c r="Q2">
+      <c r="R2">
         <v>3</v>
       </c>
-      <c r="R2">
-        <v>4</v>
-      </c>
       <c r="S2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="U2">
-        <v>0.7555555555555555</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="V2">
         <v>5</v>
